--- a/Sizing Code/costs.xlsx
+++ b/Sizing Code/costs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>gymbal</t>
   </si>
@@ -42,9 +42,6 @@
     <t>foam</t>
   </si>
   <si>
-    <t>battery receiver</t>
-  </si>
-  <si>
     <t>battery motor</t>
   </si>
   <si>
@@ -60,20 +57,143 @@
     <t>camera</t>
   </si>
   <si>
-    <t>labor</t>
-  </si>
-  <si>
     <t>carbon road</t>
   </si>
   <si>
     <t>motor + propeller</t>
+  </si>
+  <si>
+    <t>AIRCRAFT</t>
+  </si>
+  <si>
+    <t>QUADCOPTER</t>
+  </si>
+  <si>
+    <t>MANUFACTURING</t>
+  </si>
+  <si>
+    <t>frame</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>antishock</t>
+  </si>
+  <si>
+    <t>landing gear</t>
+  </si>
+  <si>
+    <t>battery charger</t>
+  </si>
+  <si>
+    <t>gimbal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rc controller </t>
+  </si>
+  <si>
+    <t>foam cutter</t>
+  </si>
+  <si>
+    <t>mosaic software</t>
+  </si>
+  <si>
+    <t>3D printer</t>
+  </si>
+  <si>
+    <t>tetracam</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>qty</t>
+  </si>
+  <si>
+    <t>total cost</t>
+  </si>
+  <si>
+    <t>single unit</t>
+  </si>
+  <si>
+    <t>Total Dollar value</t>
+  </si>
+  <si>
+    <t>connectors</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">software is optional in case SFM does work for us </t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>salder</t>
+  </si>
+  <si>
+    <t>hardware (screws, nuts, bults. Etc)</t>
+  </si>
+  <si>
+    <t>tools (screws drives, cutting blades)</t>
+  </si>
+  <si>
+    <t>microlite</t>
+  </si>
+  <si>
+    <t>adhesive (glues)</t>
+  </si>
+  <si>
+    <t>Velcro</t>
+  </si>
+  <si>
+    <t>shipping</t>
+  </si>
+  <si>
+    <t>possible shipping cost</t>
+  </si>
+  <si>
+    <t>magnets</t>
+  </si>
+  <si>
+    <t>control hinges</t>
+  </si>
+  <si>
+    <t>batteries</t>
+  </si>
+  <si>
+    <t>blow drier</t>
+  </si>
+  <si>
+    <t>extra part</t>
+  </si>
+  <si>
+    <t>extra propellers</t>
+  </si>
+  <si>
+    <t>connectors electrical</t>
+  </si>
+  <si>
+    <t>control rods</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>marcopolo</t>
+  </si>
+  <si>
+    <t>tracker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +201,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -98,12 +232,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,161 +592,1050 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:D23"/>
+  <dimension ref="A5:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <f>D6*E6</f>
+        <v>150</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>318</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
+        <f>I6*J6</f>
+        <v>318</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N6" s="2">
+        <v>80</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2</v>
+      </c>
+      <c r="P6" s="2">
+        <f>N6*O6</f>
+        <v>160</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3</v>
+      </c>
+      <c r="U6" s="2">
+        <v>5</v>
+      </c>
+      <c r="V6" s="2">
+        <f>T6*U6</f>
+        <v>15</v>
+      </c>
+      <c r="X6">
+        <v>200</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" ref="F7:F21" si="0">D7*E7</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2">
+        <v>300</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K17" si="1">I7*J7</f>
+        <v>300</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7:P22" si="2">N7*O7</f>
+        <v>1500</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2">
+        <v>150</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2900</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="2"/>
+        <v>2900</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2800</v>
+      </c>
+      <c r="O10" s="2">
+        <v>1</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" s="2">
+        <v>20</v>
+      </c>
+      <c r="O11" s="2">
+        <v>1</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2">
+        <v>15</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="2">
+        <v>60</v>
+      </c>
+      <c r="O12" s="2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2">
+        <v>150</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2">
+        <v>160</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="2">
+        <v>100</v>
+      </c>
+      <c r="O14" s="2">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>240</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" s="2">
+        <v>50</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>240</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>10</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="2">
+        <v>20</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>160</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="2">
+        <v>20</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>150</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="2">
+        <v>10</v>
+      </c>
+      <c r="O18" s="2">
+        <v>1</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D19" s="2">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="2">
+        <v>30</v>
+      </c>
+      <c r="O19" s="2">
+        <v>1</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20" s="2">
+        <v>10</v>
+      </c>
+      <c r="O20" s="2">
+        <v>1</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D23">
-        <f>SUM(D7:D22)</f>
-        <v>990</v>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="2">
+        <v>10</v>
+      </c>
+      <c r="O21" s="2">
+        <v>1</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="2">
+        <v>10</v>
+      </c>
+      <c r="O22" s="2">
+        <v>1</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="F33" s="4">
+        <f>SUM(F7:F31)</f>
+        <v>1250</v>
+      </c>
+      <c r="K33" s="4">
+        <f>SUM(K6:K31)</f>
+        <v>1383</v>
+      </c>
+      <c r="P33" s="4">
+        <f>SUM(P6:P32)</f>
+        <v>7710</v>
+      </c>
+      <c r="S33" s="4">
+        <f>SUM(X6:X31)</f>
+        <v>200</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X33" s="6">
+        <f>SUM(F33:S33)</f>
+        <v>10543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:24" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="C35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4">
+        <f>SUM(D6:D23)</f>
+        <v>1150</v>
+      </c>
+      <c r="I35" s="4">
+        <f>SUM(I6:I20)</f>
+        <v>1383</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
